--- a/树形结构输出展示.xlsx
+++ b/树形结构输出展示.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QK\Desktop\mohen\mohen_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9A38C-58BA-476A-A4C1-57E3AC786034}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E2137-DD0F-41C9-8F7F-8E61CE85B14E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8925" windowHeight="4815" xr2:uid="{2E409B2E-3ECA-4FF0-A7C0-6A2CE2B0E478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,30 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3_attr1_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3_arr2_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Leaf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,14 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>59hy67g37g4gg4yy43g8h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59hy67g37g4gg4yy4342tf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,15 +127,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>59hy67g37g4gg4yydsfg8k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59hy67g37g4gg4y234fg23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,16 +498,17 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="23.19921875" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" customWidth="1"/>
+    <col min="9" max="9" width="17.46484375" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="14.3984375" customWidth="1"/>
@@ -561,49 +526,34 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -617,13 +567,13 @@
         <v>3214513</v>
       </c>
       <c r="E2">
-        <v>35145153</v>
+        <v>45153</v>
       </c>
       <c r="F2">
         <v>22244355</v>
       </c>
       <c r="G2">
-        <v>2343155</v>
+        <v>43155</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -640,13 +590,13 @@
         <v>24323</v>
       </c>
       <c r="E3">
-        <v>23424</v>
+        <v>2324</v>
       </c>
       <c r="F3">
         <v>2342424</v>
       </c>
       <c r="G3">
-        <v>234235</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -663,13 +613,13 @@
         <v>435534</v>
       </c>
       <c r="E4">
-        <v>4535345</v>
+        <v>4535</v>
       </c>
       <c r="F4">
         <v>324234</v>
       </c>
       <c r="G4">
-        <v>657765</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -686,13 +636,13 @@
         <v>87789</v>
       </c>
       <c r="E5">
-        <v>67999</v>
+        <v>6799</v>
       </c>
       <c r="F5">
         <v>675757</v>
       </c>
       <c r="G5">
-        <v>54535</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -709,13 +659,13 @@
         <v>3453</v>
       </c>
       <c r="E6">
-        <v>2344</v>
+        <v>244</v>
       </c>
       <c r="F6">
         <v>3534</v>
       </c>
       <c r="G6">
-        <v>2343</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -732,13 +682,13 @@
         <v>2342</v>
       </c>
       <c r="E7">
-        <v>5678</v>
+        <v>578</v>
       </c>
       <c r="F7">
         <v>1245</v>
       </c>
       <c r="G7">
-        <v>6532</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -755,13 +705,13 @@
         <v>2678</v>
       </c>
       <c r="E8">
-        <v>5446</v>
+        <v>546</v>
       </c>
       <c r="F8">
         <v>2322</v>
       </c>
       <c r="G8">
-        <v>1124</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -778,13 +728,13 @@
         <v>3453</v>
       </c>
       <c r="E9">
-        <v>4567</v>
+        <v>567</v>
       </c>
       <c r="F9">
         <v>4535</v>
       </c>
       <c r="G9">
-        <v>3456</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -801,13 +751,13 @@
         <v>4563</v>
       </c>
       <c r="E10">
-        <v>1343</v>
+        <v>343</v>
       </c>
       <c r="F10">
         <v>2342</v>
       </c>
       <c r="G10">
-        <v>2375</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -824,13 +774,13 @@
         <v>2445</v>
       </c>
       <c r="E11">
-        <v>3443</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>2452</v>
       </c>
       <c r="G11">
-        <v>2122</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -838,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -847,13 +797,13 @@
         <v>1232</v>
       </c>
       <c r="E12">
-        <v>2231</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>1123</v>
       </c>
       <c r="G12">
-        <v>1299</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -866,19 +816,16 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13">
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="J13">
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="K13">
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="L13">
+      <c r="G13">
         <v>0.5</v>
       </c>
       <c r="Q13" s="1">
@@ -895,19 +842,16 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14">
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="J14">
+      <c r="E14">
         <v>0.3</v>
       </c>
-      <c r="K14">
+      <c r="F14">
         <v>30</v>
       </c>
-      <c r="L14">
+      <c r="G14">
         <v>0.5</v>
       </c>
       <c r="Q14" s="1">
@@ -924,19 +868,16 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15">
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="K15">
+      <c r="F15">
         <v>30</v>
       </c>
-      <c r="L15">
+      <c r="G15">
         <v>0.5</v>
       </c>
       <c r="Q15" s="1">
@@ -945,56 +886,50 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16">
+      <c r="D16">
         <v>34</v>
       </c>
-      <c r="J16">
+      <c r="E16">
         <v>0.8</v>
       </c>
-      <c r="K16">
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="G16">
         <v>0.1</v>
       </c>
       <c r="Q16" s="1">
         <v>43235</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17">
+      <c r="D17">
         <v>123</v>
       </c>
-      <c r="J17">
+      <c r="E17">
         <v>0.95</v>
       </c>
-      <c r="K17">
+      <c r="F17">
         <v>19</v>
       </c>
-      <c r="L17">
+      <c r="G17">
         <v>0.15</v>
       </c>
     </row>
